--- a/service/templates/Report_simple.xlsx
+++ b/service/templates/Report_simple.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Лист1!$B$2:$W$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Лист1!$B$2:$W$79</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t xml:space="preserve">Проект</t>
   </si>
@@ -265,7 +265,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -274,7 +274,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -282,11 +282,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -303,10 +299,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -437,10 +429,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -470,560 +462,572 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+    </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1046,6 +1050,7 @@
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>

--- a/service/templates/Report_simple.xlsx
+++ b/service/templates/Report_simple.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Лист1!$B$2:$W$79</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Лист1!$A$1:$H$46</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -429,19 +429,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="17.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="13.35"/>
@@ -951,6 +952,9 @@
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9"/>
@@ -1015,19 +1019,11 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1050,14 +1046,13 @@
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.39375" right="0.274305555555556" top="0.39375" bottom="0.39375" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="129" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="137" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/service/templates/Report_simple.xlsx
+++ b/service/templates/Report_simple.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Лист1!$A$1:$H$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Лист1!$A$1:$H$47</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t xml:space="preserve">Проект</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">Основная сборка + артефакты Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перезапуск службы сервера 1С</t>
   </si>
   <si>
     <t xml:space="preserve">Обновление базы 1С (RU)</t>
@@ -429,15 +432,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.87"/>
@@ -545,7 +548,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -558,7 +561,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -586,7 +589,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>13</v>
@@ -612,7 +615,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>15</v>
@@ -885,10 +888,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -898,7 +901,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>36</v>
@@ -935,29 +938,33 @@
       <c r="F37" s="7"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-    </row>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9"/>
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -1019,11 +1026,19 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+    </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1046,6 +1061,7 @@
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>

--- a/service/templates/Report_simple.xlsx
+++ b/service/templates/Report_simple.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Лист1!$A$1:$H$47</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Лист1!$A$1:$H$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t xml:space="preserve">Проект</t>
   </si>
@@ -37,12 +37,15 @@
     <t xml:space="preserve">Oint</t>
   </si>
   <si>
-    <t xml:space="preserve">Смена версии и создание драфта на GitHub</t>
+    <t xml:space="preserve">Смена версии (в т.ч. Melezh в jf) и создание драфта</t>
   </si>
   <si>
     <t xml:space="preserve">Melezh</t>
   </si>
   <si>
+    <t xml:space="preserve">Смена версии (в т.ч. Oint зависимости) и создание драфта</t>
+  </si>
+  <si>
     <t xml:space="preserve">Основная сборка проекта</t>
   </si>
   <si>
@@ -67,7 +70,7 @@
     <t xml:space="preserve">Сборка релиза и загрузка артефактов в Draft</t>
   </si>
   <si>
-    <t xml:space="preserve">Создание docker-образов</t>
+    <t xml:space="preserve">Создание docker-образов (тест)</t>
   </si>
   <si>
     <t xml:space="preserve">Полное тестирование</t>
@@ -122,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">Тестовый деплой документации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создание docker-образов (релиз)</t>
   </si>
   <si>
     <t xml:space="preserve">Основной деплой документации (RU)</t>
@@ -432,10 +438,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -488,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -501,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -514,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -527,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -540,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -553,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -566,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -579,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -592,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -605,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -618,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -631,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -644,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -657,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -670,7 +676,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -683,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -696,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -709,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -722,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -735,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -748,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -761,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -774,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -787,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -800,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -813,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -826,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -839,7 +845,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -849,10 +855,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -865,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -878,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -891,7 +897,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -901,10 +907,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -914,10 +920,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -930,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -943,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -951,29 +957,33 @@
       <c r="F38" s="7"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-    </row>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9"/>
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -1035,11 +1045,19 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+    </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1062,6 +1080,7 @@
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
